--- a/CompareWebTableWithExcel/Resource/Data.xlsx
+++ b/CompareWebTableWithExcel/Resource/Data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Item</t>
   </si>
@@ -33,20 +33,38 @@
     <t>PQR</t>
   </si>
   <si>
-    <t>XYZ</t>
-  </si>
-  <si>
-    <t>LMO</t>
-  </si>
-  <si>
     <t>WWWW</t>
+  </si>
+  <si>
+    <t>LOCATION</t>
+  </si>
+  <si>
+    <t>ZXY</t>
+  </si>
+  <si>
+    <t>YUI</t>
+  </si>
+  <si>
+    <t>QXYZ</t>
+  </si>
+  <si>
+    <t>GTHA</t>
+  </si>
+  <si>
+    <t>RQRS</t>
+  </si>
+  <si>
+    <t>BFDSD</t>
+  </si>
+  <si>
+    <t>ABCD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,21 +72,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -77,9 +122,15 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,15 +425,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -390,61 +441,79 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="3">
+    <row r="2" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3">
+        <v>590.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="D4" s="2">
+        <v>99.99</v>
+      </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="3">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2">
-        <v>59.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2">
-        <v>99.99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4" ht="15.75" thickBot="1">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3">
         <v>55.55</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="3">
+    <row r="6" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2">
         <v>9.99</v>
       </c>
     </row>
